--- a/Cronograma - Projeto Aplicado 2.xlsx
+++ b/Cronograma - Projeto Aplicado 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\iCloudDrive\Mackenzie\3 Semestre\Projeto Aplicado 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBA32CD-D8FB-4F48-B36A-A48E39C7C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDE973-CE74-47AC-AD73-C9ED69D884B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2FB500D0-483B-43AB-9393-802977D5EAEA}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,19 +288,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,7 +620,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,47 +628,47 @@
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6">
         <v>45139</v>
       </c>
-      <c r="E2" s="7">
-        <v>45173</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6">
+        <v>45180</v>
+      </c>
+      <c r="F2" s="4">
         <f>IF(OR(D2="",E2=""),"-",E2-D2+1)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>45144</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>45144</v>
       </c>
       <c r="F3" s="1">
@@ -702,10 +702,10 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>45144</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>45144</v>
       </c>
       <c r="F4" s="1">
@@ -721,14 +721,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
         <v>45166</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="E5" s="7">
+        <v>45169</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,14 +742,17 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
         <v>45166</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="E6" s="7">
+        <v>45169</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,11 +763,17 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45178</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45180</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,11 +784,17 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45178</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45180</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,11 +805,17 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45169</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45169</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,32 +826,38 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45167</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45167</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
         <v>45174</v>
       </c>
-      <c r="E11" s="7">
-        <v>45201</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="E11" s="6">
+        <v>45215</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,11 +868,17 @@
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45181</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45215</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,11 +889,17 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45181</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45215</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,11 +910,17 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45174</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45211</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,30 +931,36 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45174</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45211</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6">
         <v>45202</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>45229</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -919,11 +973,17 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45212</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45222</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,11 +994,17 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45212</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45222</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,11 +1015,17 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45212</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45222</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,22 +1044,22 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>45230</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>45229</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1058,5 +1130,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>